--- a/04_Electronique/FrogINT_PCBProto_V1811062154/FrogINT_BOM_V03.xlsx
+++ b/04_Electronique/FrogINT_PCBProto_V1811062154/FrogINT_BOM_V03.xlsx
@@ -8,22 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrogINT\FrogINTHardware\04_Electronique\FrogINT_PCBProto_V1811062154\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23023870-C711-4918-8088-D7621CCF5695}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01147EA-58BC-495E-9B94-8DB1A602D06E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A_Lire" sheetId="3" r:id="rId1"/>
-    <sheet name="FrogINT_PCBProto_V1811062154" sheetId="1" r:id="rId2"/>
-    <sheet name="Mise_en_forme" sheetId="2" r:id="rId3"/>
-    <sheet name="BOM_format_RS" sheetId="4" r:id="rId4"/>
+    <sheet name="BOM_Format_RS_V3" sheetId="5" r:id="rId2"/>
+    <sheet name="FrogINT_PCBProto_V1811062154" sheetId="1" r:id="rId3"/>
+    <sheet name="Mise_en_forme" sheetId="2" r:id="rId4"/>
+    <sheet name="OLDBOM_format_RS" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="FrogINT_PCBProto_V1811062154" localSheetId="1">BOM_Format_RS_V3!$A$8:$H$23</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3DA80A2A-3672-49F4-B517-0480732AD932}" name="FrogINT_PCBProto_V1811062154" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="D:\FrogINT\FrogINTHardware\04_Electronique\FrogINT_PCBProto_V1811062154\FrogINT_PCBProto_V1811062154.csv" decimal="," thousands=" " tab="0" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="206">
   <si>
     <t>Component,Description,Part,References,Value,Footprint,Quantity Per PCB,Datasheet,Manufacturer_Name,Height,Manufacturer_Part_Number,Mouser Part Number,Mouser Price/Stock,RS Price/Stock,RS Part Number</t>
   </si>
@@ -421,18 +444,6 @@
     <t>Crystal_HC49-U_Vertical</t>
   </si>
   <si>
-    <t>BOM issue de la génération Output du 21/01/2019.</t>
-  </si>
-  <si>
-    <t>BOM non envoyée à ce jour à Richard pour chiffrage.</t>
-  </si>
-  <si>
-    <t>En revanche, BOM envoyée à Electronie pour Chiffrage</t>
-  </si>
-  <si>
-    <t>De plus, cette BOM est retravaillée au travers ce fichier, afin de servir d'input pour RadioSpare pour le RFQ des composants.</t>
-  </si>
-  <si>
     <t>RS P/N</t>
   </si>
   <si>
@@ -508,9 +519,6 @@
     <t>785-7187</t>
   </si>
   <si>
-    <t>814-1764</t>
-  </si>
-  <si>
     <t>Bouton</t>
   </si>
   <si>
@@ -533,6 +541,129 @@
   </si>
   <si>
     <t>1.27 mm IC Pin Connectors Ø 0.41 mm pin</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>G***</t>
+  </si>
+  <si>
+    <t>Logo_Thales_Silk_Bottom</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>Logo_CCSL_Silk_Bottom</t>
+  </si>
+  <si>
+    <t>L3,L2,L1</t>
+  </si>
+  <si>
+    <t>WS2812-LED_HeatSink</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>FUSC4632X85N</t>
+  </si>
+  <si>
+    <t>47642-0001_Molex_USB</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_SeikoEpson_TSX3225-4Pin_3.2x2.5mm_HandSoldering</t>
+  </si>
+  <si>
+    <t>XTal TSX-3225 16MHz</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C5,C6,C11</t>
+  </si>
+  <si>
+    <t>PinSocket_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>JTAG_HDRV10W41P127_2X5_676X325X510P</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>TestPoint_THTPad_D2.5mm_Drill1.2mm</t>
+  </si>
+  <si>
+    <t>R1,R5,R6</t>
+  </si>
+  <si>
+    <t>R2,R3</t>
+  </si>
+  <si>
+    <t>ATmega16U4-AU</t>
+  </si>
+  <si>
+    <t>Réf RadioSpare</t>
+  </si>
+  <si>
+    <t>904-7516</t>
+  </si>
+  <si>
+    <t>4 pins</t>
+  </si>
+  <si>
+    <t>Fabricant</t>
+  </si>
+  <si>
+    <t>765-5622 </t>
+  </si>
+  <si>
+    <t>Version 03 de la BOM</t>
+  </si>
+  <si>
+    <t>BOM en date du 02/04/2019</t>
+  </si>
+  <si>
+    <t>BOM issue de la génération via KICAD + fusion avec l'onglet "OLDBOM_format_RS" (de la V2) afin de récupérer les résistances.</t>
+  </si>
+  <si>
+    <t>Ne sont pas inclus dans cette version :</t>
+  </si>
+  <si>
+    <t>Tooling pour la réalisation</t>
+  </si>
+  <si>
+    <t>Valeure différentes de R et C afin de tester le TouchSense</t>
+  </si>
+  <si>
+    <t>Nouvelle BOM</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1171,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1054,6 +1185,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,6 +1249,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FrogINT_PCBProto_V1811062154" connectionId="1" xr16:uid="{BCEFD0E7-3231-4C04-9918-FB5D58618E78}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1435,32 +1576,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940CCAAA-AED3-4B61-A0B1-FF0EFA33475E}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1595,482 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A58751-FC1B-497C-B829-42017E084059}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1638,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -2205,12 +2802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F9541D-61F6-442C-8202-EED3055026E3}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2220,21 +2817,22 @@
     <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="40.25" customWidth="1"/>
-    <col min="13" max="13" width="50.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="40.25" customWidth="1"/>
+    <col min="14" max="14" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2251,52 +2849,55 @@
         <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2312,28 +2913,29 @@
       <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="3">
         <v>100</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.03</v>
       </c>
-      <c r="K2" s="5">
-        <f>IF(I2&lt;&gt;0,I2*J2,J2*G2)</f>
+      <c r="L2" s="5">
+        <f>IF(J2&lt;&gt;0,J2*K2,K2*H2)</f>
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2349,26 +2951,27 @@
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K21" si="0">IF(I3&lt;&gt;0,I3*J3,J3*G3)</f>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L21" si="0">IF(J3&lt;&gt;0,J3*K3,K3*H3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M3" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2384,28 +2987,29 @@
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="3">
         <v>150</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>7.6499999999999995</v>
       </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2421,28 +3025,29 @@
       <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="3">
         <v>25</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>1.575</v>
       </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2458,30 +3063,31 @@
       <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="3">
         <v>25</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>1.925</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M6" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2491,33 +3097,34 @@
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
+      <c r="D7" t="s">
+        <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5">
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2533,28 +3140,29 @@
       <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="3">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>0.41699999999999998</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>4.17</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2568,36 +3176,37 @@
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5">
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2613,31 +3222,32 @@
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="3">
         <v>50</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>1.0940000000000001</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>54.7</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2653,24 +3263,25 @@
       <c r="E11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5">
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M11" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2684,31 +3295,32 @@
       <c r="E12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>0.60599999999999998</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2724,28 +3336,29 @@
       <c r="E13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="3">
         <v>30</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>6.1499999999999995</v>
       </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2761,28 +3374,29 @@
       <c r="E14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2798,66 +3412,68 @@
       <c r="E15" s="1">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="1">
+        <v>159</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="3">
         <v>20</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="7"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2871,24 +3487,25 @@
       <c r="E17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5">
+      <c r="I17" s="1"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2902,28 +3519,29 @@
       <c r="E18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.6150000000000002</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <f t="shared" si="0"/>
         <v>7.23</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2939,31 +3557,32 @@
       <c r="E19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.73699999999999999</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>7.37</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2979,36 +3598,37 @@
       <c r="E20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="3">
         <v>20</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>5.24</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" t="s">
+      <c r="M20" s="7"/>
+      <c r="N20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>128</v>
@@ -3019,63 +3639,62 @@
       <c r="E21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="4">
-        <v>0.622</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
-      </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="J23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="9">
-        <f>SUM(K2:K21)</f>
-        <v>113.05000000000001</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K26">
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="K23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="9">
+        <f>SUM(L2:L21)</f>
+        <v>111.61000000000001</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K28" s="2">
-        <f>K23/K26</f>
-        <v>22.610000000000003</v>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L28" s="2">
+        <f>L23/L26</f>
+        <v>22.322000000000003</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="M12" r:id="rId1" xr:uid="{AC331EDB-7F06-400B-AF61-BCB3F0888DAE}"/>
-    <hyperlink ref="M10" r:id="rId2" display="https://fr.rs-online.com/web/p/barrettes-pour-ci/7020262P/?relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D626572266C753D656E266D6D3D6D61746368616C6C26706D3D5E2828282872737C5253295B205D3F293F285C647B337D5B5C2D5C735D3F5C647B332C347D5B705061415D3F29297C283235285C647B387D7C5C647B317D5C2D5C647B377D2929292426706F3D3126736E3D592673723D2673743D52535F53544F434B5F4E554D4245522677633D4E4F4E45267573743D3730323032363250267374613D373032303236325026&amp;searchHistory=%7B%22enabled%22%3Atrue%7D" xr:uid="{31141B9F-B70C-4341-A97E-51D8C72AB08B}"/>
+    <hyperlink ref="N12" r:id="rId1" xr:uid="{AC331EDB-7F06-400B-AF61-BCB3F0888DAE}"/>
+    <hyperlink ref="N10" r:id="rId2" display="https://fr.rs-online.com/web/p/barrettes-pour-ci/7020262P/?relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D626572266C753D656E266D6D3D6D61746368616C6C26706D3D5E2828282872737C5253295B205D3F293F285C647B337D5B5C2D5C735D3F5C647B332C347D5B705061415D3F29297C283235285C647B387D7C5C647B317D5C2D5C647B377D2929292426706F3D3126736E3D592673723D2673743D52535F53544F434B5F4E554D4245522677633D4E4F4E45267573743D3730323032363250267374613D373032303236325026&amp;searchHistory=%7B%22enabled%22%3Atrue%7D" xr:uid="{31141B9F-B70C-4341-A97E-51D8C72AB08B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
